--- a/Protobuf_benchmark_summary.xlsx
+++ b/Protobuf_benchmark_summary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johanwistrom/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johanwistrom/Source/protocol-buffer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9027D94-DAD7-1843-B18A-F54D6D4A13E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3BBB3A-695E-8342-B0EA-2FDCF2979CFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15760" yWindow="3040" windowWidth="45660" windowHeight="24320" activeTab="1" xr2:uid="{FD166637-8E08-2B4E-835F-CA140901900C}"/>
   </bookViews>
@@ -16,18 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$2:$E$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$5:$E$5</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$6:$E$6</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$7:$E$7</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$8:$E$8</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$2:$E$2</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$5:$E$5</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$6:$E$6</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$7:$E$7</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$8:$E$8</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Users</t>
   </si>
@@ -77,6 +65,15 @@
   </si>
   <si>
     <t>Json object creation</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>used converter: MappingJackson2HttpMessageConverter</t>
+  </si>
+  <si>
+    <t>used converter: ProtobufHttpMessageConverter</t>
   </si>
 </sst>
 </file>
@@ -122,10 +119,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4916,10 +4913,10 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4982,16 +4979,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5352,26 +5349,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91CA7D2D-F1D7-E845-9712-E856AF555826}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="98.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>10</v>
       </c>
@@ -5385,8 +5386,8 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
@@ -5402,8 +5403,8 @@
         <v>75822</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
@@ -5419,8 +5420,8 @@
         <v>3668989</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
@@ -5435,9 +5436,12 @@
       <c r="E5">
         <v>5.3999999999999999E-2</v>
       </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
@@ -5452,9 +5456,12 @@
       <c r="E6">
         <v>0.26700000000000002</v>
       </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
@@ -5469,9 +5476,12 @@
       <c r="E7">
         <v>2.3E-2</v>
       </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
@@ -5486,9 +5496,12 @@
       <c r="E8">
         <v>0.17799999999999999</v>
       </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
@@ -5504,8 +5517,8 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
@@ -5521,8 +5534,8 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
@@ -5538,8 +5551,8 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
@@ -5567,7 +5580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BEB823-FA7C-1E44-A2C1-2D08E1927828}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>

--- a/Protobuf_benchmark_summary.xlsx
+++ b/Protobuf_benchmark_summary.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johanwistrom/Source/protocol-buffer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3BBB3A-695E-8342-B0EA-2FDCF2979CFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339AFA1C-B549-E847-897A-76424268A641}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15760" yWindow="3040" windowWidth="45660" windowHeight="24320" activeTab="1" xr2:uid="{FD166637-8E08-2B4E-835F-CA140901900C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Charts" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Users</t>
   </si>
@@ -75,6 +75,21 @@
   <si>
     <t>used converter: ProtobufHttpMessageConverter</t>
   </si>
+  <si>
+    <t>Apache bench Regular users as JSON - median ms</t>
+  </si>
+  <si>
+    <t>Apache bench Regular users as byte array - median ms</t>
+  </si>
+  <si>
+    <t>Apache bench Proto users as protobuf - median ms</t>
+  </si>
+  <si>
+    <t>Apache bench Proto users as byte array - median ms</t>
+  </si>
+  <si>
+    <t>apache bench med c=1 &amp; n=100</t>
+  </si>
 </sst>
 </file>
 
@@ -105,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -113,16 +128,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -292,7 +340,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$E$2</c:f>
+              <c:f>Data!$B$2:$E$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -313,7 +361,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$E$9</c:f>
+              <c:f>Data!$B$9:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -414,7 +462,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$E$2</c:f>
+              <c:f>Data!$B$2:$E$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -435,7 +483,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$E$10</c:f>
+              <c:f>Data!$B$10:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -931,7 +979,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$E$2</c:f>
+              <c:f>Data!$B$2:$E$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -952,7 +1000,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$E$5</c:f>
+              <c:f>Data!$B$5:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1056,7 +1104,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$E$2</c:f>
+              <c:f>Data!$B$2:$E$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1077,7 +1125,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$E$7</c:f>
+              <c:f>Data!$B$7:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1180,7 +1228,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$E$2</c:f>
+              <c:f>Data!$B$2:$E$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1201,7 +1249,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$E$6</c:f>
+              <c:f>Data!$B$6:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1305,7 +1353,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$E$2</c:f>
+              <c:f>Data!$B$2:$E$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1326,7 +1374,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$8:$E$8</c:f>
+              <c:f>Data!$B$8:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1817,7 +1865,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$E$2</c:f>
+              <c:f>Data!$B$2:$E$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1838,7 +1886,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$E$4</c:f>
+              <c:f>Data!$B$4:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1939,7 +1987,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$E$2</c:f>
+              <c:f>Data!$B$2:$E$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1960,7 +2008,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$E$3</c:f>
+              <c:f>Data!$B$3:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2338,7 +2386,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$E$2</c:f>
+              <c:f>Data!$B$2:$E$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2359,7 +2407,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$12:$E$12</c:f>
+              <c:f>Data!$B$12:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2402,7 +2450,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$E$2</c:f>
+              <c:f>Data!$B$2:$E$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2423,7 +2471,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$11:$E$11</c:f>
+              <c:f>Data!$B$11:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2731,6 +2779,659 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Apache benchmark response times</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>JSON as JSON</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$14:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1083</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7DA0-284C-B789-6EC318D920C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>JSON as byte array</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$15:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1961</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7DA0-284C-B789-6EC318D920C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Protobuf as Protobuf</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$16:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1233</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7DA0-284C-B789-6EC318D920C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Protobuf as byte array</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$17:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>952</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7DA0-284C-B789-6EC318D920C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1935231935"/>
+        <c:axId val="1933730463"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1935231935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Users</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1933730463"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1933730463"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1935231935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2891,6 +3592,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4401,6 +5142,509 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4908,15 +6152,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4943,16 +6187,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4980,14 +6224,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5015,16 +6259,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5044,6 +6288,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2E2C960-64DA-A742-9581-C8C0D7562D98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5349,15 +6629,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91CA7D2D-F1D7-E845-9712-E856AF555826}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="6"/>
     <col min="6" max="6" width="98.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5372,17 +6653,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>100</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>1000</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <v>10000</v>
       </c>
     </row>
@@ -5399,7 +6681,7 @@
       <c r="D3">
         <v>75886</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>75822</v>
       </c>
     </row>
@@ -5416,7 +6698,7 @@
       <c r="D4">
         <v>366878</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>3668989</v>
       </c>
     </row>
@@ -5433,7 +6715,7 @@
       <c r="D5">
         <v>0.623</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="F5" t="s">
@@ -5453,7 +6735,7 @@
       <c r="D6">
         <v>2.97</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <v>0.26700000000000002</v>
       </c>
       <c r="F6" t="s">
@@ -5473,7 +6755,7 @@
       <c r="D7">
         <v>0.23899999999999999</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>2.3E-2</v>
       </c>
       <c r="F7" t="s">
@@ -5493,7 +6775,7 @@
       <c r="D8">
         <v>1.54</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <v>0.17799999999999999</v>
       </c>
       <c r="F8" t="s">
@@ -5513,7 +6795,7 @@
       <c r="D9">
         <v>0.13100000000000001</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
@@ -5530,7 +6812,7 @@
       <c r="D10">
         <v>0.98</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <v>9.4E-2</v>
       </c>
     </row>
@@ -5547,7 +6829,7 @@
       <c r="D11">
         <v>0.87</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
@@ -5564,8 +6846,79 @@
       <c r="D12">
         <v>0.53</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="6">
         <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>113</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1083</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <v>200</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>145</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>99</v>
+      </c>
+      <c r="E17" s="6">
+        <v>952</v>
       </c>
     </row>
   </sheetData>
@@ -5580,8 +6933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BEB823-FA7C-1E44-A2C1-2D08E1927828}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Protobuf_benchmark_summary.xlsx
+++ b/Protobuf_benchmark_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johanwistrom/Source/protocol-buffer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339AFA1C-B549-E847-897A-76424268A641}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADEAC49-4AF7-D24A-B89D-B9F5F8D320EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15760" yWindow="3040" windowWidth="45660" windowHeight="24320" activeTab="1" xr2:uid="{FD166637-8E08-2B4E-835F-CA140901900C}"/>
+    <workbookView xWindow="8440" yWindow="920" windowWidth="51340" windowHeight="26700" activeTab="1" xr2:uid="{FD166637-8E08-2B4E-835F-CA140901900C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Users</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>apache bench med c=1 &amp; n=100</t>
+  </si>
+  <si>
+    <t>Benchmark client-server</t>
+  </si>
+  <si>
+    <t>Benchmark -server</t>
   </si>
 </sst>
 </file>
@@ -2814,7 +2820,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Apache benchmark response times</a:t>
+              <a:t>Apache benchmark response times (client-server)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2871,6 +2877,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="sv-SE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Data!$B$2:$E$2</c:f>
@@ -2894,7 +2958,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$14:$E$14</c:f>
+              <c:f>Data!$B$15:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2938,6 +3002,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="sv-SE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Data!$B$2:$E$2</c:f>
@@ -2961,7 +3083,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$15:$E$15</c:f>
+              <c:f>Data!$B$16:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3004,6 +3126,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="sv-SE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Data!$B$2:$E$2</c:f>
@@ -3027,7 +3207,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$16:$E$16</c:f>
+              <c:f>Data!$B$17:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3071,6 +3251,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="sv-SE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Data!$B$2:$E$2</c:f>
@@ -3094,7 +3332,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$17:$E$17</c:f>
+              <c:f>Data!$B$18:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3120,8 +3358,895 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1935231935"/>
+        <c:axId val="1933730463"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1935231935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Users</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1933730463"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1933730463"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1935231935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Apache benchmark response times (-server)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>JSON as JSON</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="sv-SE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$21:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A3BD-3040-A2D4-D0B8C104793A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>JSON as byte array</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="sv-SE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$22:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>879</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A3BD-3040-A2D4-D0B8C104793A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Protobuf as Protobuf</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="sv-SE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$23:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>932</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A3BD-3040-A2D4-D0B8C104793A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Protobuf as byte array</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="sv-SE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$24:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>291</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A3BD-3040-A2D4-D0B8C104793A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -3632,6 +4757,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5645,6 +6810,509 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6329,6 +7997,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{550D9800-4191-A046-BBF6-E111928E66E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6629,10 +8335,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91CA7D2D-F1D7-E845-9712-E856AF555826}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6852,73 +8558,151 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <v>21</v>
-      </c>
-      <c r="D14">
-        <v>113</v>
-      </c>
-      <c r="E14" s="6">
-        <v>1083</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="E15" s="6">
-        <v>1961</v>
+        <v>1083</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D16">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="E16" s="6">
-        <v>1233</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>145</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>5</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>13</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>99</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E18" s="6">
         <v>952</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>55</v>
+      </c>
+      <c r="E21" s="6">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>96</v>
+      </c>
+      <c r="E22" s="6">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>102</v>
+      </c>
+      <c r="E23" s="6">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>31</v>
+      </c>
+      <c r="E24" s="6">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -6934,7 +8718,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
+      <selection activeCell="AH37" sqref="AH37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Protobuf_benchmark_summary.xlsx
+++ b/Protobuf_benchmark_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johanwistrom/Source/protocol-buffer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADEAC49-4AF7-D24A-B89D-B9F5F8D320EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277E3796-7C61-2345-9E80-E1B302840BEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8440" yWindow="920" windowWidth="51340" windowHeight="26700" activeTab="1" xr2:uid="{FD166637-8E08-2B4E-835F-CA140901900C}"/>
+    <workbookView xWindow="8440" yWindow="900" windowWidth="51340" windowHeight="26700" activeTab="1" xr2:uid="{FD166637-8E08-2B4E-835F-CA140901900C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>

--- a/Protobuf_benchmark_summary.xlsx
+++ b/Protobuf_benchmark_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johanwistrom/Source/protocol-buffer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277E3796-7C61-2345-9E80-E1B302840BEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C2148D-ECCD-674A-9300-EB3038197D10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8440" yWindow="900" windowWidth="51340" windowHeight="26700" activeTab="1" xr2:uid="{FD166637-8E08-2B4E-835F-CA140901900C}"/>
   </bookViews>
@@ -170,13 +170,13 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2741,6 +2741,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3479,7 +3510,6 @@
       <c:valAx>
         <c:axId val="1933730463"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4365,7 +4395,6 @@
       <c:valAx>
         <c:axId val="1933730463"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -8344,33 +8373,33 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="54" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="6"/>
+    <col min="5" max="5" width="10.83203125" style="5"/>
     <col min="6" max="6" width="98.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
       <c r="F1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3">
         <v>10</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>100</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>1000</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>10000</v>
       </c>
     </row>
@@ -8387,7 +8416,7 @@
       <c r="D3">
         <v>75886</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>75822</v>
       </c>
     </row>
@@ -8404,7 +8433,7 @@
       <c r="D4">
         <v>366878</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>3668989</v>
       </c>
     </row>
@@ -8421,7 +8450,7 @@
       <c r="D5">
         <v>0.623</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="F5" t="s">
@@ -8441,7 +8470,7 @@
       <c r="D6">
         <v>2.97</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>0.26700000000000002</v>
       </c>
       <c r="F6" t="s">
@@ -8461,7 +8490,7 @@
       <c r="D7">
         <v>0.23899999999999999</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>2.3E-2</v>
       </c>
       <c r="F7" t="s">
@@ -8481,7 +8510,7 @@
       <c r="D8">
         <v>1.54</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>0.17799999999999999</v>
       </c>
       <c r="F8" t="s">
@@ -8501,7 +8530,7 @@
       <c r="D9">
         <v>0.13100000000000001</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
@@ -8518,7 +8547,7 @@
       <c r="D10">
         <v>0.98</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>9.4E-2</v>
       </c>
     </row>
@@ -8535,7 +8564,7 @@
       <c r="D11">
         <v>0.87</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
@@ -8552,7 +8581,7 @@
       <c r="D12">
         <v>0.53</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
@@ -8574,7 +8603,7 @@
       <c r="D15">
         <v>113</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>1083</v>
       </c>
       <c r="F15" t="s">
@@ -8594,7 +8623,7 @@
       <c r="D16">
         <v>200</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>1961</v>
       </c>
     </row>
@@ -8611,7 +8640,7 @@
       <c r="D17">
         <v>145</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>1233</v>
       </c>
     </row>
@@ -8628,7 +8657,7 @@
       <c r="D18">
         <v>99</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>952</v>
       </c>
     </row>
@@ -8650,7 +8679,7 @@
       <c r="D21">
         <v>55</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>625</v>
       </c>
     </row>
@@ -8667,7 +8696,7 @@
       <c r="D22">
         <v>96</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>879</v>
       </c>
     </row>
@@ -8684,7 +8713,7 @@
       <c r="D23">
         <v>102</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>932</v>
       </c>
     </row>
@@ -8701,7 +8730,7 @@
       <c r="D24">
         <v>31</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>291</v>
       </c>
     </row>
